--- a/export.xlsx
+++ b/export.xlsx
@@ -390,7 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <sheetPr>
+    <tabColor rgb="FFC0000"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -406,6 +409,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
